--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1292.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1292.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8897139695724608</v>
+        <v>1.126374840736389</v>
       </c>
       <c r="B1">
-        <v>1.876902208095474</v>
+        <v>2.275492429733276</v>
       </c>
       <c r="C1">
-        <v>5.743649087054464</v>
+        <v>10.4202241897583</v>
       </c>
       <c r="D1">
-        <v>2.7785677912138</v>
+        <v>1.98122501373291</v>
       </c>
       <c r="E1">
-        <v>1.38337956001766</v>
+        <v>1.28537118434906</v>
       </c>
     </row>
   </sheetData>
